--- a/Dangnhap.xlsx
+++ b/Dangnhap.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ĐỒ ÁN TỐT NGHIỆP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\đồ án 2\da\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>xxxxxxxxxxxx</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,17 +360,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dangnhap.xlsx
+++ b/Dangnhap.xlsx
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>xxxxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -360,19 +363,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>0</v>
       </c>

--- a/Dangnhap.xlsx
+++ b/Dangnhap.xlsx
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>xxxxxxxxxxxx</t>
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -363,26 +366,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Dangnhap.xlsx
+++ b/Dangnhap.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>xxxxxxxxxxxx</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>đ</t>
   </si>
 </sst>
 </file>
@@ -369,7 +372,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -388,6 +391,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I14" t="s">
         <v>2</v>
